--- a/Project Status.xlsx
+++ b/Project Status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AkshayGRao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AtitkumarMachhirke\Desktop\Github\Project\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A94C46F-4CFC-4998-A0BF-19F0E4E93536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D853BC-4073-4B7B-9A48-05C133C8E1F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4150" yWindow="1420" windowWidth="10000" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Sl.No</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Display Added Products - (Admin Access Only)</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Add to cart</t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -414,7 +420,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -425,7 +431,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -436,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -453,7 +459,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -464,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -475,7 +481,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -486,6 +492,17 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Project Status.xlsx
+++ b/Project Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AtitkumarMachhirke\Desktop\Github\Project\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D853BC-4073-4B7B-9A48-05C133C8E1F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DAC0B8-8324-4D2D-9A89-BDFDAC11EA83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4150" yWindow="1420" windowWidth="10000" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Sl.No</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Visit products page  without login</t>
   </si>
   <si>
-    <t>Add Products after Admin login</t>
-  </si>
-  <si>
     <t xml:space="preserve">Home page </t>
   </si>
   <si>
@@ -70,6 +67,12 @@
   </si>
   <si>
     <t>Add to cart</t>
+  </si>
+  <si>
+    <t>Display loged in user - (Admin Access Only)</t>
+  </si>
+  <si>
+    <t>Add, delete, edit Products after Admin login</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -417,10 +420,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -428,10 +431,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -442,13 +445,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -456,10 +459,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -470,7 +473,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -478,10 +481,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -489,10 +492,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -503,6 +506,17 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
